--- a/AAII_Financials/Quarterly/PAE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PAE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
   <si>
     <t>PAE</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,64 +665,68 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44010</v>
+      </c>
+      <c r="E7" s="2">
         <v>43919</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>643300</v>
+      </c>
+      <c r="E8" s="3">
         <v>617300</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F8" s="3" t="s">
         <v>4</v>
       </c>
@@ -735,23 +739,26 @@
       <c r="I8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>496700</v>
+      </c>
+      <c r="E9" s="3">
         <v>465200</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
@@ -770,17 +777,20 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>146600</v>
+      </c>
+      <c r="E10" s="3">
         <v>152100</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
@@ -799,8 +809,11 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,16 +919,19 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>8000</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
+      <c r="E15" s="3">
+        <v>8000</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>4</v>
@@ -928,8 +951,11 @@
       <c r="K15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,46 +964,50 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>609000</v>
+      </c>
+      <c r="E17" s="3">
         <v>609800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
-      </c>
-      <c r="H17" s="3">
-        <v>300</v>
       </c>
       <c r="I17" s="3">
         <v>300</v>
       </c>
       <c r="J17" s="3">
+        <v>300</v>
+      </c>
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E18" s="3">
         <v>7500</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F18" s="3" t="s">
         <v>4</v>
       </c>
@@ -990,14 +1020,17 @@
       <c r="I18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,16 +1042,17 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
+      <c r="E20" s="3">
+        <v>0</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>4</v>
@@ -1032,23 +1066,26 @@
       <c r="I20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>44800</v>
+      </c>
+      <c r="E21" s="3">
         <v>18100</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1067,17 +1104,20 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E22" s="3">
         <v>20900</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1096,66 +1136,75 @@
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-13500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>300</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E24" s="3">
         <v>-8700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>500</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>700</v>
-      </c>
-      <c r="H24" s="3">
-        <v>400</v>
       </c>
       <c r="I24" s="3">
         <v>400</v>
       </c>
       <c r="J24" s="3">
+        <v>400</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1700</v>
       </c>
       <c r="H26" s="3">
         <v>1700</v>
       </c>
       <c r="I26" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J26" s="3">
         <v>1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>300</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1700</v>
       </c>
       <c r="H27" s="3">
         <v>1700</v>
       </c>
       <c r="I27" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J27" s="3">
         <v>1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>300</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,16 +1424,19 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
         <v>0</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
+      <c r="E32" s="3">
+        <v>0</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>4</v>
@@ -1380,43 +1450,49 @@
       <c r="I32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1700</v>
       </c>
       <c r="H33" s="3">
         <v>1700</v>
       </c>
       <c r="I33" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J33" s="3">
         <v>1500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>300</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1700</v>
       </c>
       <c r="H35" s="3">
         <v>1700</v>
       </c>
       <c r="I35" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J35" s="3">
         <v>1500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>300</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44010</v>
+      </c>
+      <c r="E38" s="2">
         <v>43919</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,37 +1619,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>138500</v>
+      </c>
+      <c r="E41" s="3">
         <v>99800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1600</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,28 +1681,31 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>432200</v>
+      </c>
+      <c r="E43" s="3">
         <v>420800</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
@@ -1620,8 +1713,11 @@
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,22 +1745,25 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>45700</v>
+      </c>
+      <c r="E45" s="3">
         <v>46800</v>
-      </c>
-      <c r="E45" s="3">
-        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>200</v>
@@ -1673,80 +1772,89 @@
         <v>200</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>616300</v>
+      </c>
+      <c r="E46" s="3">
         <v>567300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E47" s="3">
         <v>17700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>408600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>407100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>406300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>405000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>402600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>400400</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>181200</v>
+      </c>
+      <c r="E48" s="3">
         <v>189800</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>4</v>
       </c>
@@ -1765,17 +1873,20 @@
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>574000</v>
+      </c>
+      <c r="E49" s="3">
         <v>582000</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F49" s="3" t="s">
         <v>4</v>
       </c>
@@ -1794,8 +1905,11 @@
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,23 +1969,26 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E52" s="3">
         <v>26100</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
       <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
         <v>300</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>4</v>
       </c>
@@ -1881,8 +2001,11 @@
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1411000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1383000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>409000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>408600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>406700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>405600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>403700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>402000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,17 +2095,18 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>107200</v>
+      </c>
+      <c r="E57" s="3">
         <v>122100</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F57" s="3" t="s">
         <v>4</v>
       </c>
@@ -1994,17 +2125,20 @@
       <c r="K57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E58" s="3">
         <v>22900</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2014,84 +2148,93 @@
       <c r="H58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>419900</v>
+      </c>
+      <c r="E59" s="3">
         <v>361200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>550000</v>
+      </c>
+      <c r="E60" s="3">
         <v>506200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>589800</v>
+      </c>
+      <c r="E61" s="3">
         <v>595600</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2110,37 +2253,43 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>125900</v>
+      </c>
+      <c r="E62" s="3">
         <v>137800</v>
-      </c>
-      <c r="E62" s="3">
-        <v>14000</v>
       </c>
       <c r="F62" s="3">
         <v>14000</v>
       </c>
       <c r="G62" s="3">
+        <v>14000</v>
+      </c>
+      <c r="H62" s="3">
         <v>14300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>14200</v>
-      </c>
-      <c r="I62" s="3">
-        <v>14000</v>
       </c>
       <c r="J62" s="3">
         <v>14000</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3">
+        <v>14000</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1300100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1271800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>18500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>16500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>15000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-134300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-150300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>5000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>200</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>110900</v>
+      </c>
+      <c r="E76" s="3">
         <v>111200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>390400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>392100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>392300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>390600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>389000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>387500</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44010</v>
+      </c>
+      <c r="E80" s="2">
         <v>43919</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
-      </c>
-      <c r="G81" s="3">
-        <v>1700</v>
       </c>
       <c r="H81" s="3">
         <v>1700</v>
       </c>
       <c r="I81" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J81" s="3">
         <v>1500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>300</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,17 +2832,18 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E83" s="3">
         <v>10600</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F83" s="3" t="s">
         <v>4</v>
       </c>
@@ -2663,8 +2862,11 @@
       <c r="K83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>44700</v>
+      </c>
+      <c r="E89" s="3">
         <v>10900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,17 +3070,18 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
@@ -2879,8 +3100,11 @@
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2200</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,19 +3338,22 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E100" s="3">
         <v>21500</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
+      <c r="F100" s="3">
+        <v>0</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>4</v>
@@ -3115,26 +3361,29 @@
       <c r="H100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>400900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F101" s="3" t="s">
         <v>4</v>
       </c>
@@ -3153,33 +3402,39 @@
       <c r="K101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>38700</v>
+      </c>
+      <c r="E102" s="3">
         <v>31800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PAE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PAE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
   <si>
     <t>PAE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,71 +665,75 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44101</v>
+      </c>
+      <c r="E7" s="2">
         <v>44010</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43919</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>666200</v>
+      </c>
+      <c r="E8" s="3">
         <v>643300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>617300</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>4</v>
       </c>
@@ -742,26 +746,29 @@
       <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>512900</v>
+      </c>
+      <c r="E9" s="3">
         <v>496700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>465200</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
@@ -780,20 +787,23 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>153300</v>
+      </c>
+      <c r="E10" s="3">
         <v>146600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>152100</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
@@ -812,8 +822,11 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +839,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,8 +872,11 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +907,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -922,8 +942,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -933,8 +956,8 @@
       <c r="E15" s="3">
         <v>8000</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
+      <c r="F15" s="3">
+        <v>8000</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>4</v>
@@ -954,8 +977,11 @@
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,52 +991,56 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>637700</v>
+      </c>
+      <c r="E17" s="3">
         <v>609000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>609800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
-      </c>
-      <c r="I17" s="3">
-        <v>300</v>
       </c>
       <c r="J17" s="3">
         <v>300</v>
       </c>
       <c r="K17" s="3">
+        <v>300</v>
+      </c>
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E18" s="3">
         <v>34300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7500</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1023,14 +1053,17 @@
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,8 +1076,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1054,8 +1088,8 @@
       <c r="E20" s="3">
         <v>0</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
+      <c r="F20" s="3">
+        <v>0</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>4</v>
@@ -1069,26 +1103,29 @@
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>38800</v>
+      </c>
+      <c r="E21" s="3">
         <v>44800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>18100</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1107,20 +1144,23 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E22" s="3">
         <v>13800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>20900</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1139,72 +1179,81 @@
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E23" s="3">
         <v>20500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-13500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>300</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E24" s="3">
         <v>3800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-8700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>500</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>700</v>
-      </c>
-      <c r="I24" s="3">
-        <v>400</v>
       </c>
       <c r="J24" s="3">
         <v>400</v>
       </c>
       <c r="K24" s="3">
+        <v>400</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1284,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E26" s="3">
         <v>16800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
-      </c>
-      <c r="H26" s="3">
-        <v>1700</v>
       </c>
       <c r="I26" s="3">
         <v>1700</v>
       </c>
       <c r="J26" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K26" s="3">
         <v>1500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>300</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E27" s="3">
         <v>16000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
-      </c>
-      <c r="H27" s="3">
-        <v>1700</v>
       </c>
       <c r="I27" s="3">
         <v>1700</v>
       </c>
       <c r="J27" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K27" s="3">
         <v>1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>300</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1389,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1424,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,8 +1494,11 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1438,8 +1508,8 @@
       <c r="E32" s="3">
         <v>0</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
+      <c r="F32" s="3">
+        <v>0</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>4</v>
@@ -1453,46 +1523,52 @@
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E33" s="3">
         <v>16000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
-      </c>
-      <c r="H33" s="3">
-        <v>1700</v>
       </c>
       <c r="I33" s="3">
         <v>1700</v>
       </c>
       <c r="J33" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K33" s="3">
         <v>1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>300</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1599,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E35" s="3">
         <v>16000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
-      </c>
-      <c r="H35" s="3">
-        <v>1700</v>
       </c>
       <c r="I35" s="3">
         <v>1700</v>
       </c>
       <c r="J35" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K35" s="3">
         <v>1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>300</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44101</v>
+      </c>
+      <c r="E38" s="2">
         <v>44010</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43919</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,40 +1706,44 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>145400</v>
+      </c>
+      <c r="E41" s="3">
         <v>138500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>99800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1600</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,31 +1774,34 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>445400</v>
+      </c>
+      <c r="E43" s="3">
         <v>432200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>420800</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
@@ -1716,8 +1809,11 @@
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,25 +1844,28 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>44400</v>
+      </c>
+      <c r="E45" s="3">
         <v>45700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>46800</v>
-      </c>
-      <c r="F45" s="3">
-        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>200</v>
@@ -1775,89 +1874,98 @@
         <v>200</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>635200</v>
+      </c>
+      <c r="E46" s="3">
         <v>616300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>567300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E47" s="3">
         <v>17800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>17700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>408600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>407100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>406300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>405000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>402600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>400400</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>185700</v>
+      </c>
+      <c r="E48" s="3">
         <v>181200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>189800</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>4</v>
       </c>
@@ -1876,20 +1984,23 @@
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>565900</v>
+      </c>
+      <c r="E49" s="3">
         <v>574000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>582000</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>4</v>
       </c>
@@ -1908,8 +2019,11 @@
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,26 +2089,29 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E52" s="3">
         <v>21700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>26100</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
       <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
         <v>300</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2004,8 +2124,11 @@
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2159,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1429000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1411000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1383000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>409000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>408600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>406700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>405600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>403700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>402000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,20 +2226,21 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>140500</v>
+      </c>
+      <c r="E57" s="3">
         <v>107200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>122100</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2128,8 +2259,11 @@
       <c r="L57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2137,11 +2271,11 @@
         <v>23000</v>
       </c>
       <c r="E58" s="3">
+        <v>23000</v>
+      </c>
+      <c r="F58" s="3">
         <v>22900</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2151,93 +2285,102 @@
       <c r="I58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>391100</v>
+      </c>
+      <c r="E59" s="3">
         <v>419900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>361200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>554600</v>
+      </c>
+      <c r="E60" s="3">
         <v>550000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>506200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>584000</v>
+      </c>
+      <c r="E61" s="3">
         <v>589800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>595600</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2256,40 +2399,46 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>128300</v>
+      </c>
+      <c r="E62" s="3">
         <v>125900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>137800</v>
-      </c>
-      <c r="F62" s="3">
-        <v>14000</v>
       </c>
       <c r="G62" s="3">
         <v>14000</v>
       </c>
       <c r="H62" s="3">
+        <v>14000</v>
+      </c>
+      <c r="I62" s="3">
         <v>14300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>14200</v>
-      </c>
-      <c r="J62" s="3">
-        <v>14000</v>
       </c>
       <c r="K62" s="3">
         <v>14000</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>14000</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2539,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1302000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1300100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1271800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>18500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>16500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2729,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-124000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-134300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-150300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>5000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>200</v>
       </c>
-      <c r="L72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +2869,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>127000</v>
+      </c>
+      <c r="E76" s="3">
         <v>110900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>111200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>390400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>392100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>392300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>390600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>389000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>387500</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +2939,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44101</v>
+      </c>
+      <c r="E80" s="2">
         <v>44010</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43919</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E81" s="3">
         <v>16000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
-      </c>
-      <c r="H81" s="3">
-        <v>1700</v>
       </c>
       <c r="I81" s="3">
         <v>1700</v>
       </c>
       <c r="J81" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K81" s="3">
         <v>1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>300</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,20 +3031,21 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E83" s="3">
         <v>10500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>10600</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>4</v>
       </c>
@@ -2865,8 +3064,11 @@
       <c r="L83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3239,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>36500</v>
+      </c>
+      <c r="E89" s="3">
         <v>44700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>10900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,20 +3291,21 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
@@ -3103,8 +3324,11 @@
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3394,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2200</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,22 +3584,25 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-27500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>21500</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
+      <c r="G100" s="3">
+        <v>0</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>4</v>
@@ -3364,29 +3610,32 @@
       <c r="I100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>400900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E101" s="3">
         <v>1100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>4</v>
       </c>
@@ -3405,36 +3654,42 @@
       <c r="L101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E102" s="3">
         <v>38700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>31800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PAE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PAE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
   <si>
     <t>PAE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,81 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44101</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44010</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43919</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>787800</v>
+      </c>
+      <c r="E8" s="3">
         <v>666200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>643300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>617300</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>4</v>
       </c>
@@ -749,29 +752,32 @@
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="L8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>623400</v>
+      </c>
+      <c r="E9" s="3">
         <v>512900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>496700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>465200</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
@@ -790,23 +796,26 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>164400</v>
+      </c>
+      <c r="E10" s="3">
         <v>153300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>146600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>152100</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
@@ -825,8 +834,11 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +852,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -875,8 +888,11 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +926,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,13 +964,16 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="E15" s="3">
         <v>8000</v>
@@ -959,8 +981,8 @@
       <c r="F15" s="3">
         <v>8000</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
+      <c r="G15" s="3">
+        <v>8000</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>4</v>
@@ -980,8 +1002,11 @@
       <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,58 +1017,62 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>767400</v>
+      </c>
+      <c r="E17" s="3">
         <v>637700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>609000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>609800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
-      </c>
-      <c r="J17" s="3">
-        <v>300</v>
       </c>
       <c r="K17" s="3">
         <v>300</v>
       </c>
       <c r="L17" s="3">
+        <v>300</v>
+      </c>
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E18" s="3">
         <v>28500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>34300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7500</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1056,14 +1085,17 @@
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,8 +1109,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1091,8 +1124,8 @@
       <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
+      <c r="G20" s="3">
+        <v>0</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>4</v>
@@ -1106,29 +1139,32 @@
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>32700</v>
+      </c>
+      <c r="E21" s="3">
         <v>38800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>44800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>18100</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1147,23 +1183,26 @@
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E22" s="3">
         <v>13600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>13800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>20900</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1182,78 +1221,87 @@
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E23" s="3">
         <v>14900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>20500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-13500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>300</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E24" s="3">
         <v>4200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-8700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>700</v>
-      </c>
-      <c r="J24" s="3">
-        <v>400</v>
       </c>
       <c r="K24" s="3">
         <v>400</v>
       </c>
       <c r="L24" s="3">
+        <v>400</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1335,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E26" s="3">
         <v>10700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>16800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>1700</v>
       </c>
       <c r="J26" s="3">
         <v>1700</v>
       </c>
       <c r="K26" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L26" s="3">
         <v>1500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>300</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E27" s="3">
         <v>10300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>16000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>1700</v>
       </c>
       <c r="J27" s="3">
         <v>1700</v>
       </c>
       <c r="K27" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L27" s="3">
         <v>1500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>300</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,8 +1563,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1511,8 +1580,8 @@
       <c r="F32" s="3">
         <v>0</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
+      <c r="G32" s="3">
+        <v>0</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>4</v>
@@ -1526,49 +1595,55 @@
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E33" s="3">
         <v>10300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>16000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>1700</v>
       </c>
       <c r="J33" s="3">
         <v>1700</v>
       </c>
       <c r="K33" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L33" s="3">
         <v>1500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>300</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1677,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E35" s="3">
         <v>10300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>16000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>1700</v>
       </c>
       <c r="J35" s="3">
         <v>1700</v>
       </c>
       <c r="K35" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L35" s="3">
         <v>1500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>300</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44101</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44010</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43919</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,43 +1792,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>85900</v>
+      </c>
+      <c r="E41" s="3">
         <v>145400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>138500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>99800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1600</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,34 +1866,37 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>585500</v>
+      </c>
+      <c r="E43" s="3">
         <v>445400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>432200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>420800</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
@@ -1812,8 +1904,11 @@
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,28 +1942,31 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>61600</v>
+      </c>
+      <c r="E45" s="3">
         <v>44400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>45700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>46800</v>
-      </c>
-      <c r="G45" s="3">
-        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>200</v>
@@ -1877,98 +1975,107 @@
         <v>200</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>733000</v>
+      </c>
+      <c r="E46" s="3">
         <v>635200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>616300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>567300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E47" s="3">
         <v>19000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>17800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>17700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>408600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>407100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>406300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>405000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>402600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>400400</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>219000</v>
+      </c>
+      <c r="E48" s="3">
         <v>185700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>181200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>189800</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>4</v>
       </c>
@@ -1987,23 +2094,26 @@
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>848900</v>
+      </c>
+      <c r="E49" s="3">
         <v>565900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>574000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>582000</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2022,8 +2132,11 @@
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,29 +2208,32 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E52" s="3">
         <v>23200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>21700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>26100</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
       <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <v>300</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2127,8 +2246,11 @@
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2284,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1829400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1429000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1411000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1383000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>409000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>408600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>406700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>405600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>403700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>402000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,23 +2356,24 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>153000</v>
+      </c>
+      <c r="E57" s="3">
         <v>140500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>107200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>122100</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2262,23 +2392,26 @@
       <c r="M57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>23000</v>
+        <v>6000</v>
       </c>
       <c r="E58" s="3">
         <v>23000</v>
       </c>
       <c r="F58" s="3">
+        <v>23000</v>
+      </c>
+      <c r="G58" s="3">
         <v>22900</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2288,102 +2421,111 @@
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>473300</v>
+      </c>
+      <c r="E59" s="3">
         <v>391100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>419900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>361200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>632200</v>
+      </c>
+      <c r="E60" s="3">
         <v>554600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>550000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>506200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>860300</v>
+      </c>
+      <c r="E61" s="3">
         <v>584000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>589800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>595600</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2402,43 +2544,49 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>180200</v>
+      </c>
+      <c r="E62" s="3">
         <v>128300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>125900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>137800</v>
-      </c>
-      <c r="G62" s="3">
-        <v>14000</v>
       </c>
       <c r="H62" s="3">
         <v>14000</v>
       </c>
       <c r="I62" s="3">
+        <v>14000</v>
+      </c>
+      <c r="J62" s="3">
         <v>14300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>14200</v>
-      </c>
-      <c r="K62" s="3">
-        <v>14000</v>
       </c>
       <c r="L62" s="3">
         <v>14000</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>14000</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2696,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1705000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1302000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1300100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1271800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>18500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>16500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +2902,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-130100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-124000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-134300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-150300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>5000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>200</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3054,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>124400</v>
+      </c>
+      <c r="E76" s="3">
         <v>127000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>110900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>111200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>390400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>392100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>392300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>390600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>389000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>387500</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3130,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44101</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44010</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43919</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E81" s="3">
         <v>10300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>16000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>1700</v>
       </c>
       <c r="J81" s="3">
         <v>1700</v>
       </c>
       <c r="K81" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L81" s="3">
         <v>1500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>300</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,23 +3229,24 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E83" s="3">
         <v>10200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>10500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>10600</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>4</v>
       </c>
@@ -3067,8 +3265,11 @@
       <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3455,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E89" s="3">
         <v>36500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>44700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>10900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,23 +3511,24 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
@@ -3327,8 +3547,11 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3623,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-313500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2200</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3679,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,25 +3829,28 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>243700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-27500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>21500</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
+      <c r="H100" s="3">
+        <v>0</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>4</v>
@@ -3613,32 +3858,35 @@
       <c r="J100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>400900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>4</v>
       </c>
@@ -3657,39 +3905,45 @@
       <c r="M101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-59500</v>
+      </c>
+      <c r="E102" s="3">
         <v>7000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>38700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>31800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PAE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PAE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
   <si>
     <t>PAE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,84 +665,88 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44283</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44101</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44010</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43919</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>748600</v>
+      </c>
+      <c r="E8" s="3">
         <v>787800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>666200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>643300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>617300</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>4</v>
       </c>
@@ -755,32 +759,35 @@
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="M8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>566700</v>
+      </c>
+      <c r="E9" s="3">
         <v>623400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>512900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>496700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>465200</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
@@ -799,26 +806,29 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>181900</v>
+      </c>
+      <c r="E10" s="3">
         <v>164400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>153300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>146600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>152100</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
@@ -837,8 +847,11 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -891,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,8 +946,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,16 +987,19 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E15" s="3">
         <v>10000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>8000</v>
       </c>
       <c r="F15" s="3">
         <v>8000</v>
@@ -984,8 +1007,8 @@
       <c r="G15" s="3">
         <v>8000</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
+      <c r="H15" s="3">
+        <v>8000</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>4</v>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,64 +1044,68 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>722400</v>
+      </c>
+      <c r="E17" s="3">
         <v>767400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>637700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>609000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>609800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
-      </c>
-      <c r="K17" s="3">
-        <v>300</v>
       </c>
       <c r="L17" s="3">
         <v>300</v>
       </c>
       <c r="M17" s="3">
+        <v>300</v>
+      </c>
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>26200</v>
+      </c>
+      <c r="E18" s="3">
         <v>20400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>28500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>34300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7500</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1088,14 +1118,17 @@
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,13 +1143,14 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1127,8 +1161,8 @@
       <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
+      <c r="H20" s="3">
+        <v>30100</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>4</v>
@@ -1142,31 +1176,34 @@
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>41900</v>
+      </c>
+      <c r="E21" s="3">
         <v>32700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>38800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>44800</v>
       </c>
-      <c r="G21" s="3">
-        <v>18100</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
+      <c r="H21" s="3">
+        <v>48200</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
@@ -1186,26 +1223,29 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E22" s="3">
         <v>25500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>13600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>13800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>20900</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1224,84 +1264,93 @@
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>14900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>20500</v>
       </c>
-      <c r="G23" s="3">
-        <v>-13500</v>
-      </c>
       <c r="H23" s="3">
+        <v>16600</v>
+      </c>
+      <c r="I23" s="3">
         <v>-1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>300</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E24" s="3">
         <v>3900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3800</v>
       </c>
-      <c r="G24" s="3">
-        <v>-8700</v>
-      </c>
       <c r="H24" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>700</v>
-      </c>
-      <c r="K24" s="3">
-        <v>400</v>
       </c>
       <c r="L24" s="3">
         <v>400</v>
       </c>
       <c r="M24" s="3">
+        <v>400</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-8900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>10700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>16800</v>
       </c>
-      <c r="G26" s="3">
-        <v>-4800</v>
-      </c>
       <c r="H26" s="3">
+        <v>26200</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>1700</v>
       </c>
       <c r="K26" s="3">
         <v>1700</v>
       </c>
       <c r="L26" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M26" s="3">
         <v>1500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>300</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-6100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>10300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>16000</v>
       </c>
-      <c r="G27" s="3">
-        <v>-4900</v>
-      </c>
       <c r="H27" s="3">
+        <v>26000</v>
+      </c>
+      <c r="I27" s="3">
         <v>-1700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>1700</v>
       </c>
       <c r="K27" s="3">
         <v>1700</v>
       </c>
       <c r="L27" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M27" s="3">
         <v>1500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>300</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,13 +1633,16 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1583,8 +1653,8 @@
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
+      <c r="H32" s="3">
+        <v>-30100</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>4</v>
@@ -1598,52 +1668,58 @@
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-6100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>10300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>16000</v>
       </c>
-      <c r="G33" s="3">
-        <v>-4900</v>
-      </c>
       <c r="H33" s="3">
+        <v>26000</v>
+      </c>
+      <c r="I33" s="3">
         <v>-1700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>1700</v>
       </c>
       <c r="K33" s="3">
         <v>1700</v>
       </c>
       <c r="L33" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M33" s="3">
         <v>1500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>300</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-6100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>10300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>16000</v>
       </c>
-      <c r="G35" s="3">
-        <v>-4900</v>
-      </c>
       <c r="H35" s="3">
+        <v>26000</v>
+      </c>
+      <c r="I35" s="3">
         <v>-1700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>1700</v>
       </c>
       <c r="K35" s="3">
         <v>1700</v>
       </c>
       <c r="L35" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M35" s="3">
         <v>1500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>300</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44283</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44101</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44010</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43919</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,46 +1879,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>118200</v>
+      </c>
+      <c r="E41" s="3">
         <v>85900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>145400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>138500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>99800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1600</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,37 +1959,40 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>562400</v>
+      </c>
+      <c r="E43" s="3">
         <v>585500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>445400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>432200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>420800</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
@@ -1907,8 +2000,11 @@
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1945,31 +2041,34 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>69900</v>
+      </c>
+      <c r="E45" s="3">
         <v>61600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>44400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>45700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>46800</v>
-      </c>
-      <c r="H45" s="3">
-        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>200</v>
@@ -1978,107 +2077,116 @@
         <v>200</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>750500</v>
+      </c>
+      <c r="E46" s="3">
         <v>733000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>635200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>616300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>567300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E47" s="3">
         <v>18300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>19000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>17800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>17700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>408600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>407100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>406300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>405000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>402600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>400400</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>210900</v>
+      </c>
+      <c r="E48" s="3">
         <v>219000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>185700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>181200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>189800</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2097,26 +2205,29 @@
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>837200</v>
+      </c>
+      <c r="E49" s="3">
         <v>848900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>565900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>574000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>582000</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2135,8 +2246,11 @@
       <c r="N49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,32 +2328,35 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E52" s="3">
         <v>10200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>23200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>21700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>26100</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
       <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>300</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2249,8 +2369,11 @@
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,46 +2410,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1828300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1829400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1429000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1411000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1383000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>409000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>408600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>406700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>405600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>403700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>402000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,26 +2487,27 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>177900</v>
+      </c>
+      <c r="E57" s="3">
         <v>153000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>140500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>107200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>122100</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2395,26 +2526,29 @@
       <c r="N57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E58" s="3">
         <v>6000</v>
-      </c>
-      <c r="E58" s="3">
-        <v>23000</v>
       </c>
       <c r="F58" s="3">
         <v>23000</v>
       </c>
       <c r="G58" s="3">
+        <v>23000</v>
+      </c>
+      <c r="H58" s="3">
         <v>22900</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2424,111 +2558,120 @@
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>459100</v>
+      </c>
+      <c r="E59" s="3">
         <v>473300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>391100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>419900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>361200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>642900</v>
+      </c>
+      <c r="E60" s="3">
         <v>632200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>554600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>550000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>506200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>861100</v>
+      </c>
+      <c r="E61" s="3">
         <v>860300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>584000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>589800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>595600</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2547,46 +2690,52 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>224800</v>
+      </c>
+      <c r="E62" s="3">
         <v>180200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>128300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>125900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>137800</v>
-      </c>
-      <c r="H62" s="3">
-        <v>14000</v>
       </c>
       <c r="I62" s="3">
         <v>14000</v>
       </c>
       <c r="J62" s="3">
+        <v>14000</v>
+      </c>
+      <c r="K62" s="3">
         <v>14300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>14200</v>
-      </c>
-      <c r="L62" s="3">
-        <v>14000</v>
       </c>
       <c r="M62" s="3">
         <v>14000</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>14000</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,46 +2854,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1762700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1705000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1302000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1300100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1271800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>18500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>16500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,46 +3076,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-103200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-130100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-124000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-134300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-150300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>5000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>200</v>
       </c>
-      <c r="N72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,46 +3240,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>65600</v>
+      </c>
+      <c r="E76" s="3">
         <v>124400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>127000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>110900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>111200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>390400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>392100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>392300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>390600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>389000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>387500</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44283</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44101</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44010</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43919</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-6100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>10300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>16000</v>
       </c>
-      <c r="G81" s="3">
-        <v>-4900</v>
-      </c>
       <c r="H81" s="3">
+        <v>26000</v>
+      </c>
+      <c r="I81" s="3">
         <v>-1700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>1700</v>
       </c>
       <c r="K81" s="3">
         <v>1700</v>
       </c>
       <c r="L81" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M81" s="3">
         <v>1500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>300</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,26 +3428,27 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E83" s="3">
         <v>12200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>10200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>10500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>10600</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>4</v>
       </c>
@@ -3268,8 +3467,11 @@
       <c r="N83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>55400</v>
+      </c>
+      <c r="E89" s="3">
         <v>8700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>36500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>44700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>10900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,26 +3732,27 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
@@ -3550,8 +3771,11 @@
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,46 +3853,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-313500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2200</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,28 +4075,31 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E100" s="3">
         <v>243700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-27500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>21500</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
+      <c r="I100" s="3">
+        <v>0</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>4</v>
@@ -3861,35 +4107,38 @@
       <c r="K100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>400900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E101" s="3">
         <v>1600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>4</v>
       </c>
@@ -3908,42 +4157,48 @@
       <c r="N101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>32200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-59500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>7000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>38700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>31800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PAE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PAE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
   <si>
     <t>PAE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,91 +665,95 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44374</v>
+      </c>
+      <c r="E7" s="2">
         <v>44283</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44101</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44010</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43919</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>747200</v>
+      </c>
+      <c r="E8" s="3">
         <v>748600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>787800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>666200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>643300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>617300</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
@@ -762,35 +766,38 @@
       <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="N8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>565000</v>
+      </c>
+      <c r="E9" s="3">
         <v>566700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>623400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>512900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>496700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>465200</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
@@ -809,29 +816,32 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>182200</v>
+      </c>
+      <c r="E10" s="3">
         <v>181900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>164400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>153300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>146600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>152100</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
@@ -850,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,31 +966,34 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>12500</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -990,19 +1010,22 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E15" s="3">
         <v>12200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>10000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>8000</v>
       </c>
       <c r="G15" s="3">
         <v>8000</v>
@@ -1010,8 +1033,8 @@
       <c r="H15" s="3">
         <v>8000</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
+      <c r="I15" s="3">
+        <v>8000</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>4</v>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,70 +1071,74 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>716400</v>
+      </c>
+      <c r="E17" s="3">
         <v>722400</v>
       </c>
-      <c r="E17" s="3">
-        <v>767400</v>
-      </c>
       <c r="F17" s="3">
+        <v>779900</v>
+      </c>
+      <c r="G17" s="3">
         <v>637700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>609000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>609800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
-      </c>
-      <c r="L17" s="3">
-        <v>300</v>
       </c>
       <c r="M17" s="3">
         <v>300</v>
       </c>
       <c r="N17" s="3">
+        <v>300</v>
+      </c>
+      <c r="O17" s="3">
         <v>100</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E18" s="3">
         <v>26200</v>
       </c>
-      <c r="E18" s="3">
-        <v>20400</v>
-      </c>
       <c r="F18" s="3">
+        <v>7900</v>
+      </c>
+      <c r="G18" s="3">
         <v>28500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>34300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>7500</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1121,14 +1151,17 @@
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,29 +1177,30 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
         <v>1200</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>12700</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>30100</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1179,35 +1213,38 @@
       <c r="M20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>45800</v>
+      </c>
+      <c r="E21" s="3">
         <v>41900</v>
       </c>
-      <c r="E21" s="3">
-        <v>32700</v>
-      </c>
       <c r="F21" s="3">
+        <v>32900</v>
+      </c>
+      <c r="G21" s="3">
         <v>38800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>44800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>48200</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1226,29 +1263,32 @@
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E22" s="3">
         <v>12500</v>
       </c>
-      <c r="E22" s="3">
-        <v>25500</v>
-      </c>
       <c r="F22" s="3">
+        <v>13000</v>
+      </c>
+      <c r="G22" s="3">
         <v>13600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>13800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>20900</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1267,49 +1307,55 @@
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E23" s="3">
         <v>14900</v>
       </c>
-      <c r="E23" s="3">
-        <v>-5100</v>
-      </c>
       <c r="F23" s="3">
+        <v>7600</v>
+      </c>
+      <c r="G23" s="3">
         <v>14900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>20500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>16600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>300</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1317,40 +1363,43 @@
         <v>2600</v>
       </c>
       <c r="E24" s="3">
-        <v>3900</v>
+        <v>2600</v>
       </c>
       <c r="F24" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G24" s="3">
         <v>4200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-9500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>700</v>
-      </c>
-      <c r="L24" s="3">
-        <v>400</v>
       </c>
       <c r="M24" s="3">
         <v>400</v>
       </c>
       <c r="N24" s="3">
+        <v>400</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E26" s="3">
         <v>12300</v>
       </c>
-      <c r="E26" s="3">
-        <v>-8900</v>
-      </c>
       <c r="F26" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G26" s="3">
         <v>10700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>16800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>26200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
-      </c>
-      <c r="K26" s="3">
-        <v>1700</v>
       </c>
       <c r="L26" s="3">
         <v>1700</v>
       </c>
       <c r="M26" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N26" s="3">
         <v>1500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>300</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E27" s="3">
         <v>13400</v>
       </c>
-      <c r="E27" s="3">
-        <v>-6100</v>
-      </c>
       <c r="F27" s="3">
+        <v>7400</v>
+      </c>
+      <c r="G27" s="3">
         <v>10300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>16000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>26000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
-      </c>
-      <c r="K27" s="3">
-        <v>1700</v>
       </c>
       <c r="L27" s="3">
         <v>1700</v>
       </c>
       <c r="M27" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N27" s="3">
         <v>1500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>300</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,29 +1703,32 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1200</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-12700</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-30100</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
@@ -1671,55 +1741,61 @@
       <c r="M32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E33" s="3">
         <v>13400</v>
       </c>
-      <c r="E33" s="3">
-        <v>-6100</v>
-      </c>
       <c r="F33" s="3">
+        <v>7400</v>
+      </c>
+      <c r="G33" s="3">
         <v>10300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>16000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>26000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>1700</v>
       </c>
       <c r="L33" s="3">
         <v>1700</v>
       </c>
       <c r="M33" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N33" s="3">
         <v>1500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>300</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E35" s="3">
         <v>13400</v>
       </c>
-      <c r="E35" s="3">
-        <v>-6100</v>
-      </c>
       <c r="F35" s="3">
+        <v>7400</v>
+      </c>
+      <c r="G35" s="3">
         <v>10300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>16000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>26000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>1700</v>
       </c>
       <c r="L35" s="3">
         <v>1700</v>
       </c>
       <c r="M35" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N35" s="3">
         <v>1500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>300</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44374</v>
+      </c>
+      <c r="E38" s="2">
         <v>44283</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44101</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44010</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43919</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,49 +1966,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>94700</v>
+      </c>
+      <c r="E41" s="3">
         <v>118200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>85900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>145400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>138500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>99800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1600</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,40 +2052,43 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>605100</v>
+      </c>
+      <c r="E43" s="3">
         <v>562400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>585500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>445400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>432200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>420800</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>4</v>
@@ -2003,8 +2096,11 @@
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,34 +2140,37 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>63400</v>
+      </c>
+      <c r="E45" s="3">
         <v>69900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>61600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>44400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>45700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>46800</v>
-      </c>
-      <c r="I45" s="3">
-        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>200</v>
@@ -2080,116 +2179,125 @@
         <v>200</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>763100</v>
+      </c>
+      <c r="E46" s="3">
         <v>750500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>733000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>635200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>616300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>567300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E47" s="3">
         <v>19400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>18300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>19000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>17800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>17700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>408600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>407100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>406300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>405000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>402600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>400400</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>233500</v>
+      </c>
+      <c r="E48" s="3">
         <v>210900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>219000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>185700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>181200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>189800</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2208,29 +2316,32 @@
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>826500</v>
+      </c>
+      <c r="E49" s="3">
         <v>837200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>848900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>565900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>574000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>582000</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,35 +2448,38 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E52" s="3">
         <v>10300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>10200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>23200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>21700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>26100</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>300</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2372,8 +2492,11 @@
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1856400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1828300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1829400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1429000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1411000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1383000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>409000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>408600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>406700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>405600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>403700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>402000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,29 +2618,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>174700</v>
+      </c>
+      <c r="E57" s="3">
         <v>177900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>153000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>140500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>107200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>122100</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2529,29 +2660,32 @@
       <c r="O57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E58" s="3">
         <v>5900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6000</v>
-      </c>
-      <c r="F58" s="3">
-        <v>23000</v>
       </c>
       <c r="G58" s="3">
         <v>23000</v>
       </c>
       <c r="H58" s="3">
+        <v>23000</v>
+      </c>
+      <c r="I58" s="3">
         <v>22900</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2561,120 +2695,129 @@
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>452300</v>
+      </c>
+      <c r="E59" s="3">
         <v>459100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>473300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>391100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>419900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>361200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>633500</v>
+      </c>
+      <c r="E60" s="3">
         <v>642900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>632200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>554600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>550000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>506200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>863900</v>
+      </c>
+      <c r="E61" s="3">
         <v>861100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>860300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>584000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>589800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>595600</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2693,49 +2836,55 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>242400</v>
+      </c>
+      <c r="E62" s="3">
         <v>224800</v>
       </c>
-      <c r="E62" s="3">
-        <v>180200</v>
-      </c>
       <c r="F62" s="3">
+        <v>230700</v>
+      </c>
+      <c r="G62" s="3">
         <v>128300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>125900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>137800</v>
-      </c>
-      <c r="I62" s="3">
-        <v>14000</v>
       </c>
       <c r="J62" s="3">
         <v>14000</v>
       </c>
       <c r="K62" s="3">
+        <v>14000</v>
+      </c>
+      <c r="L62" s="3">
         <v>14300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>14200</v>
-      </c>
-      <c r="M62" s="3">
-        <v>14000</v>
       </c>
       <c r="N62" s="3">
         <v>14000</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>14000</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1773600</v>
+      </c>
+      <c r="E66" s="3">
         <v>1762700</v>
       </c>
-      <c r="E66" s="3">
-        <v>1705000</v>
-      </c>
       <c r="F66" s="3">
+        <v>1755400</v>
+      </c>
+      <c r="G66" s="3">
         <v>1302000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1300100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1271800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>18500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>16500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-88900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-103200</v>
       </c>
-      <c r="E72" s="3">
-        <v>-130100</v>
-      </c>
       <c r="F72" s="3">
+        <v>-116600</v>
+      </c>
+      <c r="G72" s="3">
         <v>-124000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-134300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-150300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>200</v>
       </c>
-      <c r="O72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>82900</v>
+      </c>
+      <c r="E76" s="3">
         <v>65600</v>
       </c>
-      <c r="E76" s="3">
-        <v>124400</v>
-      </c>
       <c r="F76" s="3">
+        <v>73900</v>
+      </c>
+      <c r="G76" s="3">
         <v>127000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>110900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>111200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>390400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>392100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>392300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>390600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>389000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>387500</v>
       </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44374</v>
+      </c>
+      <c r="E80" s="2">
         <v>44283</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44101</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44010</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43919</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E81" s="3">
         <v>13400</v>
       </c>
-      <c r="E81" s="3">
-        <v>-6100</v>
-      </c>
       <c r="F81" s="3">
+        <v>7400</v>
+      </c>
+      <c r="G81" s="3">
         <v>10300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>16000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>26000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>1700</v>
       </c>
       <c r="L81" s="3">
         <v>1700</v>
       </c>
       <c r="M81" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N81" s="3">
         <v>1500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>300</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,29 +3627,30 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E83" s="3">
         <v>14500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>12200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>10200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>10500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>10600</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>4</v>
       </c>
@@ -3470,8 +3669,11 @@
       <c r="O83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="E89" s="3">
         <v>55400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>8700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>36500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>44700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>10900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,29 +3953,30 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
@@ -3774,8 +3995,11 @@
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-16900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-313500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2200</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,31 +4321,34 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>243700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-27500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-5900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>21500</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>4</v>
@@ -4110,38 +4356,41 @@
       <c r="L100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>400900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>4</v>
       </c>
@@ -4160,45 +4409,51 @@
       <c r="O101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="E102" s="3">
         <v>32200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-59500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>7000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>38700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>31800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PAE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PAE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
   <si>
     <t>PAE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,98 +665,102 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44465</v>
+      </c>
+      <c r="E7" s="2">
         <v>44374</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44283</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44101</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44010</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43919</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>689500</v>
+      </c>
+      <c r="E8" s="3">
         <v>747200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>748600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>787800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>666200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>643300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>617300</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
@@ -769,38 +773,41 @@
       <c r="N8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="O8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>511900</v>
+      </c>
+      <c r="E9" s="3">
         <v>565000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>566700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>623400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>512900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>496700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>465200</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
@@ -819,32 +826,35 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>177600</v>
+      </c>
+      <c r="E10" s="3">
         <v>182200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>181900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>164400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>153300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>146600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>152100</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
@@ -863,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -980,12 +1000,12 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
         <v>12500</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
@@ -995,8 +1015,8 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1022,13 +1045,13 @@
         <v>12600</v>
       </c>
       <c r="E15" s="3">
+        <v>12600</v>
+      </c>
+      <c r="F15" s="3">
         <v>12200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>10000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>8000</v>
       </c>
       <c r="H15" s="3">
         <v>8000</v>
@@ -1036,8 +1059,8 @@
       <c r="I15" s="3">
         <v>8000</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
+      <c r="J15" s="3">
+        <v>8000</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>4</v>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,76 +1098,80 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>663500</v>
+      </c>
+      <c r="E17" s="3">
         <v>716400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>722400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>779900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>637700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>609000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>609800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
-      </c>
-      <c r="M17" s="3">
-        <v>300</v>
       </c>
       <c r="N17" s="3">
         <v>300</v>
       </c>
       <c r="O17" s="3">
+        <v>300</v>
+      </c>
+      <c r="P17" s="3">
         <v>100</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E18" s="3">
         <v>30800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>26200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>28500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>34300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>7500</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1154,14 +1184,17 @@
       <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,32 +1211,33 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>12700</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>30100</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1216,38 +1250,41 @@
       <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>58100</v>
+      </c>
+      <c r="E21" s="3">
         <v>45800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>41900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>32900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>38800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>44800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>48200</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1266,32 +1303,35 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E22" s="3">
         <v>13200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>12500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>13000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>13600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>13800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>20900</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1310,96 +1350,105 @@
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E23" s="3">
         <v>17500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>14900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>7600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>14900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>20500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>16600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>300</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="E24" s="3">
         <v>2600</v>
       </c>
       <c r="F24" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G24" s="3">
         <v>3000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-9500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>500</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>700</v>
-      </c>
-      <c r="M24" s="3">
-        <v>400</v>
       </c>
       <c r="N24" s="3">
         <v>400</v>
       </c>
       <c r="O24" s="3">
+        <v>400</v>
+      </c>
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E26" s="3">
         <v>14900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>12300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>10700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>16800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>26200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
-      </c>
-      <c r="L26" s="3">
-        <v>1700</v>
       </c>
       <c r="M26" s="3">
         <v>1700</v>
       </c>
       <c r="N26" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O26" s="3">
         <v>1500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>300</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E27" s="3">
         <v>14400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>13400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>7400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>10300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>16000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>26000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
-      </c>
-      <c r="L27" s="3">
-        <v>1700</v>
       </c>
       <c r="M27" s="3">
         <v>1700</v>
       </c>
       <c r="N27" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O27" s="3">
         <v>1500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>300</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,32 +1773,35 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-12700</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-30100</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
@@ -1744,58 +1814,64 @@
       <c r="N32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E33" s="3">
         <v>14400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>13400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>7400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>10300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>16000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>26000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
-      </c>
-      <c r="L33" s="3">
-        <v>1700</v>
       </c>
       <c r="M33" s="3">
         <v>1700</v>
       </c>
       <c r="N33" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O33" s="3">
         <v>1500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>300</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E35" s="3">
         <v>14400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>13400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>7400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>10300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>16000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>26000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
-      </c>
-      <c r="L35" s="3">
-        <v>1700</v>
       </c>
       <c r="M35" s="3">
         <v>1700</v>
       </c>
       <c r="N35" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O35" s="3">
         <v>1500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>300</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44465</v>
+      </c>
+      <c r="E38" s="2">
         <v>44374</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44283</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44101</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44010</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43919</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2053,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>157300</v>
+      </c>
+      <c r="E41" s="3">
         <v>94700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>118200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>85900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>145400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>138500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>99800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1600</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,43 +2145,46 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>524700</v>
+      </c>
+      <c r="E43" s="3">
         <v>605100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>562400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>585500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>445400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>432200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>420800</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>4</v>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,37 +2239,40 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E45" s="3">
         <v>63400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>69900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>61600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>44400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>45700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>46800</v>
-      </c>
-      <c r="J45" s="3">
-        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>200</v>
@@ -2182,125 +2281,134 @@
         <v>200</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>745000</v>
+      </c>
+      <c r="E46" s="3">
         <v>763100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>750500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>733000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>635200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>616300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>567300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E47" s="3">
         <v>20400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>19400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>18300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>19000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>17800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>17700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>408600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>407100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>406300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>405000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>402600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>400400</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>229200</v>
+      </c>
+      <c r="E48" s="3">
         <v>233500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>210900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>219000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>185700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>181200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>189800</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2319,32 +2427,35 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>813900</v>
+      </c>
+      <c r="E49" s="3">
         <v>826500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>837200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>848900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>565900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>574000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>582000</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,38 +2568,41 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E52" s="3">
         <v>12900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>10300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>10200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>23200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>21700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>26100</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>300</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1818500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1856400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1828300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1829400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1429000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1411000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1383000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>409000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>408600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>406700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>405600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>403700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>402000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,32 +2749,33 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>125000</v>
+      </c>
+      <c r="E57" s="3">
         <v>174700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>177900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>153000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>140500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>107200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>122100</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2663,32 +2794,35 @@
       <c r="P57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E58" s="3">
         <v>6600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6000</v>
-      </c>
-      <c r="G58" s="3">
-        <v>23000</v>
       </c>
       <c r="H58" s="3">
         <v>23000</v>
       </c>
       <c r="I58" s="3">
+        <v>23000</v>
+      </c>
+      <c r="J58" s="3">
         <v>22900</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2698,129 +2832,138 @@
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>464800</v>
+      </c>
+      <c r="E59" s="3">
         <v>452300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>459100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>473300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>391100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>419900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>361200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>596800</v>
+      </c>
+      <c r="E60" s="3">
         <v>633500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>642900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>632200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>554600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>550000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>506200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>865000</v>
+      </c>
+      <c r="E61" s="3">
         <v>863900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>861100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>860300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>584000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>589800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>595600</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2839,52 +2982,58 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>207700</v>
+      </c>
+      <c r="E62" s="3">
         <v>242400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>224800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>230700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>128300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>125900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>137800</v>
-      </c>
-      <c r="J62" s="3">
-        <v>14000</v>
       </c>
       <c r="K62" s="3">
         <v>14000</v>
       </c>
       <c r="L62" s="3">
+        <v>14000</v>
+      </c>
+      <c r="M62" s="3">
         <v>14300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>14200</v>
-      </c>
-      <c r="N62" s="3">
-        <v>14000</v>
       </c>
       <c r="O62" s="3">
         <v>14000</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>14000</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1704500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1773600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1762700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1755400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1302000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1300100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1271800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>18500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-59100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-88900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-103200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-116600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-124000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-134300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-150300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>200</v>
       </c>
-      <c r="P72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>113900</v>
+      </c>
+      <c r="E76" s="3">
         <v>82900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>65600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>73900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>127000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>110900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>111200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>390400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>392100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>392300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>390600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>389000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>387500</v>
       </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44465</v>
+      </c>
+      <c r="E80" s="2">
         <v>44374</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44283</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44101</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44010</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43919</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E81" s="3">
         <v>14400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>13400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>7400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>10300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>16000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>26000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
-      </c>
-      <c r="L81" s="3">
-        <v>1700</v>
       </c>
       <c r="M81" s="3">
         <v>1700</v>
       </c>
       <c r="N81" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O81" s="3">
         <v>1500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>300</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,32 +3826,33 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E83" s="3">
         <v>15100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>14500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>12200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>10200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>10500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>10600</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>4</v>
       </c>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>56300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-11900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>55400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>8700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>36500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>44700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>10900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,32 +4174,33 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-12000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-13900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-16900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-313500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2200</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,34 +4567,37 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E100" s="3">
         <v>2000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>243700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-27500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-5900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>21500</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>4</v>
@@ -4359,41 +4605,44 @@
       <c r="M100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
+      <c r="N100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>400900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
         <v>400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>4</v>
       </c>
@@ -4412,48 +4661,54 @@
       <c r="P101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>62600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-23400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>32200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-59500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>7000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>38700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>31800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>
